--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.1/avg_0.003_scores.xlsx
@@ -121,12 +121,12 @@
     <t>dear</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -148,16 +148,16 @@
     <t>hope</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>care</t>
@@ -1324,13 +1324,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.7587719298245614</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L25">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="M25">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="N25">
         <v>0.9399999999999999</v>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1350,25 +1350,25 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.7333333333333333</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L26">
+        <v>173</v>
+      </c>
+      <c r="M26">
+        <v>173</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>66</v>
-      </c>
-      <c r="M26">
-        <v>70</v>
-      </c>
-      <c r="N26">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1558,25 +1558,25 @@
         <v>44</v>
       </c>
       <c r="K34">
-        <v>0.6349693251533742</v>
+        <v>0.62</v>
       </c>
       <c r="L34">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1584,25 +1584,25 @@
         <v>45</v>
       </c>
       <c r="K35">
-        <v>0.62</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1610,25 +1610,25 @@
         <v>46</v>
       </c>
       <c r="K36">
-        <v>0.6129032258064516</v>
+        <v>0.6115485564304461</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="N36">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="O36">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1636,25 +1636,25 @@
         <v>47</v>
       </c>
       <c r="K37">
-        <v>0.6115485564304461</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L37">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="M37">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="N37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="10:17">
